--- a/4_semester/power_bi/dax/alle_data.xlsx
+++ b/4_semester/power_bi/dax/alle_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ac1f8984512bd16/Dokumenter/GitHub/keaonline/4_semester/power_bi/dax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{F21F7231-62E0-4BE9-9DDF-D392271BE9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05C98B4A-6ACF-4F7B-8FC9-36AC173881D1}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{F21F7231-62E0-4BE9-9DDF-D392271BE9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F31C073-444B-48A3-AF51-379B68FB0454}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{AC605E8A-528F-4B87-B184-5B0287E63B14}"/>
   </bookViews>
@@ -137,10 +137,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E382E42-A4C0-4861-96F8-B35479DAEC46}">
   <dimension ref="A1:E3231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A3193" workbookViewId="0">
+      <selection activeCell="B3201" sqref="B3201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
